--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -29,10 +29,49 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">Supports the National Climate Scheme</t>
   </si>
   <si>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
@@ -397,915 +436,1431 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="n">
-        <v>61.4199721014981</v>
+        <v>67.8679804978435</v>
       </c>
       <c r="C2" t="n">
-        <v>55.6153000170659</v>
+        <v>66.47906002391</v>
       </c>
       <c r="D2" t="n">
-        <v>67.2246441859303</v>
+        <v>69.256900971777</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="n">
-        <v>61.5114308256678</v>
+        <v>58.2036706373417</v>
       </c>
       <c r="C3" t="n">
-        <v>56.4638497767679</v>
+        <v>51.6049338919256</v>
       </c>
       <c r="D3" t="n">
-        <v>66.5590118745677</v>
+        <v>64.8024073827579</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" t="n">
-        <v>72.3031163839991</v>
+        <v>64.4575228658036</v>
       </c>
       <c r="C4" t="n">
-        <v>66.8938802592192</v>
+        <v>59.3082081809368</v>
       </c>
       <c r="D4" t="n">
-        <v>77.712352508779</v>
+        <v>69.6068375506703</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="n">
-        <v>68.0394528982894</v>
+        <v>80.0284739031995</v>
       </c>
       <c r="C5" t="n">
-        <v>64.5023278258959</v>
+        <v>76.4371644309911</v>
       </c>
       <c r="D5" t="n">
-        <v>71.5765779706829</v>
+        <v>83.619783375408</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="n">
-        <v>50.6786188660699</v>
+        <v>64.2550167034555</v>
       </c>
       <c r="C6" t="n">
-        <v>42.3437880107091</v>
+        <v>59.6112601142505</v>
       </c>
       <c r="D6" t="n">
-        <v>59.0134497214307</v>
+        <v>68.8987732926605</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.9492339511511</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.3927990325155</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.5056688697867</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68.6368170390751</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61.4197452444066</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75.8538888337436</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>69.3214710621706</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60.6965978728041</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77.9463442515372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>70.1245337266761</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64.0536990862034</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76.1953683671489</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
         <v>87.6159556077524</v>
       </c>
-      <c r="C7" t="n">
-        <v>84.6863938433658</v>
-      </c>
-      <c r="D7" t="n">
-        <v>90.545517372139</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C11" t="n">
+        <v>82.6471708682941</v>
+      </c>
+      <c r="D11" t="n">
+        <v>92.5847403472107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90.9247309965247</v>
+      </c>
+      <c r="C12" t="n">
+        <v>84.7094256520237</v>
+      </c>
+      <c r="D12" t="n">
+        <v>97.1400363410257</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>63.6149633119223</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59.7148415491709</v>
+      </c>
+      <c r="D13" t="n">
+        <v>67.5150850746736</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78.5390250556912</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75.1496389301711</v>
+      </c>
+      <c r="D14" t="n">
+        <v>81.9284111812114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>49.6956252308101</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45.1595850858804</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.2316653757398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8" t="n">
-        <v>69.8599264240425</v>
-      </c>
-      <c r="C8" t="n">
-        <v>63.614966393519</v>
-      </c>
-      <c r="D8" t="n">
-        <v>76.104886454566</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9" t="n">
-        <v>55.7945158402345</v>
-      </c>
-      <c r="C9" t="n">
-        <v>47.8061865840628</v>
-      </c>
-      <c r="D9" t="n">
-        <v>63.7828450964062</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="n">
-        <v>66.6328348677732</v>
-      </c>
-      <c r="C10" t="n">
-        <v>61.2213726891424</v>
-      </c>
-      <c r="D10" t="n">
-        <v>72.044297046404</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="n">
-        <v>61.5114055904206</v>
-      </c>
-      <c r="C11" t="n">
-        <v>58.4855462691326</v>
-      </c>
-      <c r="D11" t="n">
-        <v>64.5372649117086</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="n">
-        <v>60.5290681386294</v>
-      </c>
-      <c r="C12" t="n">
-        <v>57.1356325193814</v>
-      </c>
-      <c r="D12" t="n">
-        <v>63.9225037578775</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13" t="n">
-        <v>56.4293349046236</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53.4258579039897</v>
-      </c>
-      <c r="D13" t="n">
-        <v>59.4328119052576</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="n">
-        <v>74.4489025556534</v>
-      </c>
-      <c r="C14" t="n">
-        <v>71.3378414278401</v>
-      </c>
-      <c r="D14" t="n">
-        <v>77.5599636834666</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15" t="n">
-        <v>53.5087509520014</v>
-      </c>
-      <c r="C15" t="n">
-        <v>51.3223001591498</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55.6952017448531</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16"/>
       <c r="B16" t="n">
-        <v>50.6935542872362</v>
+        <v>55.3718303775116</v>
       </c>
       <c r="C16" t="n">
-        <v>46.3091660983591</v>
+        <v>54.4833021444574</v>
       </c>
       <c r="D16" t="n">
-        <v>55.0779424761133</v>
+        <v>56.2603586105659</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
+        <v>45.2686105807208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41.2369915707786</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.3002295906631</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60.8336262307662</v>
+      </c>
+      <c r="C18" t="n">
+        <v>57.7973945297114</v>
+      </c>
+      <c r="D18" t="n">
+        <v>63.8698579318209</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77.42661541532</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75.2139691659458</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79.6392616646942</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>59.9498572230777</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57.1785205985379</v>
+      </c>
+      <c r="D20" t="n">
+        <v>62.7211938476176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>45.8263840559057</v>
+      </c>
+      <c r="C21" t="n">
+        <v>42.6043663688251</v>
+      </c>
+      <c r="D21" t="n">
+        <v>49.0484017429864</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48.4321597862702</v>
+      </c>
+      <c r="C22" t="n">
+        <v>43.800782522005</v>
+      </c>
+      <c r="D22" t="n">
+        <v>53.0635370505355</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="n">
+        <v>61.2111541228833</v>
+      </c>
+      <c r="C23" t="n">
+        <v>56.2079351211208</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66.2143731246458</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57.2331454255148</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53.5498401837316</v>
+      </c>
+      <c r="D24" t="n">
+        <v>60.9164506672981</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="n">
         <v>84.6428606188793</v>
       </c>
-      <c r="C17" t="n">
-        <v>82.4071495544298</v>
-      </c>
-      <c r="D17" t="n">
-        <v>86.8785716833287</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="n">
-        <v>68.1960152413415</v>
-      </c>
-      <c r="C18" t="n">
-        <v>64.4757824769946</v>
-      </c>
-      <c r="D18" t="n">
-        <v>71.9162480056884</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19" t="n">
-        <v>61.0877821309218</v>
-      </c>
-      <c r="C19" t="n">
-        <v>56.670599702984</v>
-      </c>
-      <c r="D19" t="n">
-        <v>65.5049645588597</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="n">
-        <v>57.5331257319554</v>
-      </c>
-      <c r="C20" t="n">
-        <v>54.1602118742019</v>
-      </c>
-      <c r="D20" t="n">
-        <v>60.9060395897089</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="n">
-        <v>46.2093337994977</v>
-      </c>
-      <c r="C21" t="n">
-        <v>44.4249914901988</v>
-      </c>
-      <c r="D21" t="n">
-        <v>47.9936761087967</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="n">
-        <v>70.6184035166313</v>
-      </c>
-      <c r="C22" t="n">
-        <v>64.5453164329789</v>
-      </c>
-      <c r="D22" t="n">
-        <v>76.6914906002837</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="n">
-        <v>62.1768279054714</v>
-      </c>
-      <c r="C23" t="n">
-        <v>56.4857581967681</v>
-      </c>
-      <c r="D23" t="n">
-        <v>67.8678976141746</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="n">
-        <v>82.0729293563814</v>
-      </c>
-      <c r="C24" t="n">
-        <v>76.5582494117215</v>
-      </c>
-      <c r="D24" t="n">
-        <v>87.5876093010413</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="n">
-        <v>65.7842931103845</v>
-      </c>
       <c r="C25" t="n">
-        <v>61.64347129443</v>
+        <v>80.8509054008945</v>
       </c>
       <c r="D25" t="n">
-        <v>69.9251149263389</v>
+        <v>88.4348158368641</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
       <c r="B26" t="n">
-        <v>58.4933323459008</v>
+        <v>85.1579637309937</v>
       </c>
       <c r="C26" t="n">
-        <v>50.1555182032516</v>
+        <v>79.9612411806006</v>
       </c>
       <c r="D26" t="n">
-        <v>66.8311464885499</v>
+        <v>90.3546862813867</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>87.221912376435</v>
+        <v>53.6291385483281</v>
       </c>
       <c r="C27" t="n">
-        <v>83.0145179792185</v>
+        <v>51.2964320705412</v>
       </c>
       <c r="D27" t="n">
-        <v>91.4293067736515</v>
+        <v>55.961845026115</v>
       </c>
       <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57.9183059294616</v>
+      </c>
+      <c r="C28" t="n">
+        <v>55.5464263028299</v>
+      </c>
+      <c r="D28" t="n">
+        <v>60.2901855560933</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35.2117596369122</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32.7461300694052</v>
+      </c>
+      <c r="D29" t="n">
+        <v>37.6773892044193</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64.7240480131028</v>
+      </c>
+      <c r="C30" t="n">
+        <v>63.0045795926267</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66.4435164335789</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>53.5959256498547</v>
+      </c>
+      <c r="C31" t="n">
+        <v>45.1374099334053</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62.0544413663041</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28"/>
-      <c r="B28" t="n">
-        <v>69.5763306606468</v>
-      </c>
-      <c r="C28" t="n">
-        <v>62.4634447024593</v>
-      </c>
-      <c r="D28" t="n">
-        <v>76.6892166188343</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29" t="n">
-        <v>62.4541420167265</v>
-      </c>
-      <c r="C29" t="n">
-        <v>53.8270540570508</v>
-      </c>
-      <c r="D29" t="n">
-        <v>71.0812299764023</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30"/>
-      <c r="B30" t="n">
-        <v>58.7415395197149</v>
-      </c>
-      <c r="C30" t="n">
-        <v>51.9400339783796</v>
-      </c>
-      <c r="D30" t="n">
-        <v>65.5430450610502</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="n">
-        <v>59.0581324425086</v>
-      </c>
-      <c r="C31" t="n">
-        <v>55.4748479165178</v>
-      </c>
-      <c r="D31" t="n">
-        <v>62.6414169684994</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
       <c r="B32" t="n">
-        <v>72.5390214988976</v>
+        <v>64.6926442530012</v>
       </c>
       <c r="C32" t="n">
-        <v>66.253854348713</v>
+        <v>58.8632486020242</v>
       </c>
       <c r="D32" t="n">
-        <v>78.8241886490822</v>
+        <v>70.5220399039782</v>
       </c>
       <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33"/>
       <c r="B33" t="n">
-        <v>71.2101280571611</v>
+        <v>81.0058301157972</v>
       </c>
       <c r="C33" t="n">
-        <v>65.4582941317994</v>
+        <v>76.9129967696661</v>
       </c>
       <c r="D33" t="n">
-        <v>76.9619619825229</v>
+        <v>85.0986634619283</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34"/>
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
       <c r="B34" t="n">
-        <v>76.9962787140821</v>
+        <v>67.9015812555758</v>
       </c>
       <c r="C34" t="n">
-        <v>71.3255773772501</v>
+        <v>62.7490957928574</v>
       </c>
       <c r="D34" t="n">
-        <v>82.666980050914</v>
+        <v>73.0540667182942</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35"/>
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
       <c r="B35" t="n">
-        <v>66.0490185589346</v>
+        <v>56.2472580448493</v>
       </c>
       <c r="C35" t="n">
-        <v>61.833921675686</v>
+        <v>49.8937322240713</v>
       </c>
       <c r="D35" t="n">
-        <v>70.2641154421831</v>
+        <v>62.6007838656273</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36"/>
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
       <c r="B36" t="n">
-        <v>44.9623695362666</v>
+        <v>63.2404094953534</v>
       </c>
       <c r="C36" t="n">
-        <v>34.9435947318987</v>
+        <v>54.6141448047978</v>
       </c>
       <c r="D36" t="n">
-        <v>54.9811443406344</v>
+        <v>71.8666741859089</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B37" t="n">
-        <v>86.9268829131095</v>
+        <v>72.292560057148</v>
       </c>
       <c r="C37" t="n">
-        <v>82.7994363602624</v>
+        <v>62.9728692800801</v>
       </c>
       <c r="D37" t="n">
-        <v>91.0543294659567</v>
+        <v>81.6122508342159</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
       <c r="B38" t="n">
-        <v>77.3647293408491</v>
+        <v>67.9944701294276</v>
       </c>
       <c r="C38" t="n">
-        <v>70.4882200080317</v>
+        <v>60.8526087641426</v>
       </c>
       <c r="D38" t="n">
-        <v>84.2412386736664</v>
+        <v>75.1363314947126</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39"/>
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
       <c r="B39" t="n">
-        <v>65.5064271992628</v>
+        <v>87.221912376435</v>
       </c>
       <c r="C39" t="n">
-        <v>56.7556475904091</v>
+        <v>80.0858153233152</v>
       </c>
       <c r="D39" t="n">
-        <v>74.2572068081165</v>
+        <v>94.3580094295548</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40"/>
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
       <c r="B40" t="n">
-        <v>66.1571537110524</v>
+        <v>90.1243309203011</v>
       </c>
       <c r="C40" t="n">
-        <v>59.8086496546993</v>
+        <v>81.4215058641674</v>
       </c>
       <c r="D40" t="n">
-        <v>72.5056577674056</v>
+        <v>98.8271559764348</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41"/>
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
       <c r="B41" t="n">
-        <v>56.4374209111599</v>
+        <v>63.7282452678287</v>
       </c>
       <c r="C41" t="n">
-        <v>52.7004927466252</v>
+        <v>59.2222856684252</v>
       </c>
       <c r="D41" t="n">
-        <v>60.1743490756945</v>
+        <v>68.2342048672322</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42"/>
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
       <c r="B42" t="n">
-        <v>69.5237690119533</v>
+        <v>73.913371562143</v>
       </c>
       <c r="C42" t="n">
-        <v>62.9673505614508</v>
+        <v>69.6929909026991</v>
       </c>
       <c r="D42" t="n">
-        <v>76.0801874624558</v>
+        <v>78.1337522215869</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43"/>
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
       <c r="B43" t="n">
-        <v>76.6655399656019</v>
+        <v>42.7105338450207</v>
       </c>
       <c r="C43" t="n">
-        <v>71.5988500026748</v>
+        <v>37.5011355251473</v>
       </c>
       <c r="D43" t="n">
-        <v>81.7322299285291</v>
+        <v>47.9199321648942</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44"/>
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
       <c r="B44" t="n">
-        <v>81.607480500695</v>
+        <v>67.2054760884641</v>
       </c>
       <c r="C44" t="n">
-        <v>75.8704411128065</v>
+        <v>65.5001731723724</v>
       </c>
       <c r="D44" t="n">
-        <v>87.3445198885835</v>
+        <v>68.9107790045557</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45"/>
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
       <c r="B45" t="n">
-        <v>70.6704621820342</v>
+        <v>61.0821485295683</v>
       </c>
       <c r="C45" t="n">
-        <v>66.6439880772612</v>
+        <v>53.2178817623498</v>
       </c>
       <c r="D45" t="n">
-        <v>74.6969362868072</v>
+        <v>68.9464152967868</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46"/>
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
       <c r="B46" t="n">
-        <v>71.7546358372171</v>
+        <v>64.5908945027497</v>
       </c>
       <c r="C46" t="n">
-        <v>64.5110128519884</v>
+        <v>58.6174375636191</v>
       </c>
       <c r="D46" t="n">
-        <v>78.9982588224459</v>
+        <v>70.5643514418803</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B47" t="n">
-        <v>90.2500167508645</v>
+        <v>89.2110961474164</v>
       </c>
       <c r="C47" t="n">
-        <v>86.5835391152729</v>
+        <v>86.0085674355688</v>
       </c>
       <c r="D47" t="n">
-        <v>93.9164943864561</v>
+        <v>92.413624859264</v>
       </c>
       <c r="E47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48"/>
       <c r="B48" t="n">
-        <v>73.3404751909535</v>
+        <v>71.7266894623785</v>
       </c>
       <c r="C48" t="n">
-        <v>65.9571311121727</v>
+        <v>66.4640777021023</v>
       </c>
       <c r="D48" t="n">
-        <v>80.7238192697343</v>
+        <v>76.9893012226547</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49"/>
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
       <c r="B49" t="n">
-        <v>74.7665642496298</v>
+        <v>56.9191698770991</v>
       </c>
       <c r="C49" t="n">
-        <v>66.7556481182441</v>
+        <v>50.0853031935026</v>
       </c>
       <c r="D49" t="n">
-        <v>82.7774803810155</v>
+        <v>63.7530365606956</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50"/>
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
       <c r="B50" t="n">
-        <v>60.2940699764367</v>
+        <v>60.1011630690049</v>
       </c>
       <c r="C50" t="n">
-        <v>54.0345140400979</v>
+        <v>50.7247325832392</v>
       </c>
       <c r="D50" t="n">
-        <v>66.5536259127755</v>
+        <v>69.4775935547706</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51"/>
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
       <c r="B51" t="n">
-        <v>62.8639052952767</v>
+        <v>74.6017774853449</v>
       </c>
       <c r="C51" t="n">
-        <v>59.5357393986439</v>
+        <v>65.3686838699917</v>
       </c>
       <c r="D51" t="n">
-        <v>66.1920711919095</v>
+        <v>83.8348711006981</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
       <c r="B52" t="n">
-        <v>61.6509169994023</v>
+        <v>68.6349696406962</v>
       </c>
       <c r="C52" t="n">
-        <v>54.8233767638597</v>
+        <v>61.8676758857027</v>
       </c>
       <c r="D52" t="n">
-        <v>68.4784572349448</v>
+        <v>75.4022633956896</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53"/>
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
       <c r="B53" t="n">
-        <v>66.3594997753722</v>
+        <v>86.9268829131095</v>
       </c>
       <c r="C53" t="n">
-        <v>60.5978564734455</v>
+        <v>79.9263841716158</v>
       </c>
       <c r="D53" t="n">
-        <v>72.1211430772989</v>
+        <v>93.9273816546033</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54"/>
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
       <c r="B54" t="n">
-        <v>80.3679928025395</v>
+        <v>90.9124159876524</v>
       </c>
       <c r="C54" t="n">
-        <v>74.5550595199882</v>
+        <v>82.8207349157313</v>
       </c>
       <c r="D54" t="n">
-        <v>86.1809260850908</v>
+        <v>99.0040970595734</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55"/>
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
       <c r="B55" t="n">
-        <v>62.0730746384692</v>
+        <v>56.7717868089115</v>
       </c>
       <c r="C55" t="n">
-        <v>57.873405786927</v>
+        <v>52.0748369904824</v>
       </c>
       <c r="D55" t="n">
-        <v>66.2727434900113</v>
+        <v>61.4687366273407</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56"/>
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
       <c r="B56" t="n">
-        <v>55.5068408144557</v>
+        <v>76.5072942240045</v>
       </c>
       <c r="C56" t="n">
-        <v>46.5879499902417</v>
+        <v>72.3012262284404</v>
       </c>
       <c r="D56" t="n">
-        <v>64.4257316386698</v>
+        <v>80.7133622195686</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B57" t="n">
+        <v>39.5788881931371</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34.1909163917365</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44.9668599945378</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>68.518253119246</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66.8882724435162</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70.1482337949759</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="n">
+        <v>63.206964383873</v>
+      </c>
+      <c r="C59" t="n">
+        <v>55.6429132989374</v>
+      </c>
+      <c r="D59" t="n">
+        <v>70.7710154688086</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>70.4051987741669</v>
+      </c>
+      <c r="C60" t="n">
+        <v>64.7399941269074</v>
+      </c>
+      <c r="D60" t="n">
+        <v>76.0704034214263</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="n">
+        <v>87.7350844295252</v>
+      </c>
+      <c r="C61" t="n">
+        <v>84.218453433964</v>
+      </c>
+      <c r="D61" t="n">
+        <v>91.2517154250863</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="n">
+        <v>74.2047687146181</v>
+      </c>
+      <c r="C62" t="n">
+        <v>69.2145602192984</v>
+      </c>
+      <c r="D62" t="n">
+        <v>79.1949772099378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56.5733861836848</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50.5323825931756</v>
+      </c>
+      <c r="D63" t="n">
+        <v>62.614389774194</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="n">
+        <v>65.2899469820091</v>
+      </c>
+      <c r="C64" t="n">
+        <v>56.3356629306815</v>
+      </c>
+      <c r="D64" t="n">
+        <v>74.2442310333368</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="n">
+        <v>83.7097204163796</v>
+      </c>
+      <c r="C65" t="n">
+        <v>76.1368370245405</v>
+      </c>
+      <c r="D65" t="n">
+        <v>91.2826038082186</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="n">
+        <v>69.5653430715701</v>
+      </c>
+      <c r="C66" t="n">
+        <v>62.6711928891369</v>
+      </c>
+      <c r="D66" t="n">
+        <v>76.4594932540033</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="n">
+        <v>90.2500167508645</v>
+      </c>
+      <c r="C67" t="n">
+        <v>84.0313603140007</v>
+      </c>
+      <c r="D67" t="n">
+        <v>96.4686731877282</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="n">
+        <v>93.2020672431582</v>
+      </c>
+      <c r="C68" t="n">
+        <v>85.5770051274782</v>
+      </c>
+      <c r="D68" t="n">
+        <v>100.827129358838</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67.9220396225733</v>
+      </c>
+      <c r="C69" t="n">
+        <v>63.6557921052468</v>
+      </c>
+      <c r="D69" t="n">
+        <v>72.1882871398999</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="n">
+        <v>80.1402311356906</v>
+      </c>
+      <c r="C70" t="n">
+        <v>76.4031175806626</v>
+      </c>
+      <c r="D70" t="n">
+        <v>83.8773446907187</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="n">
+        <v>45.9130390869888</v>
+      </c>
+      <c r="C71" t="n">
+        <v>41.0283528041185</v>
+      </c>
+      <c r="D71" t="n">
+        <v>50.797725369859</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>61.895417279981</v>
+      </c>
+      <c r="C72" t="n">
+        <v>60.1645023547081</v>
+      </c>
+      <c r="D72" t="n">
+        <v>63.6263322052539</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="n">
+        <v>52.8437635624908</v>
+      </c>
+      <c r="C73" t="n">
+        <v>44.6933103512352</v>
+      </c>
+      <c r="D73" t="n">
+        <v>60.9942167737465</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="n">
+        <v>67.1831645249645</v>
+      </c>
+      <c r="C74" t="n">
+        <v>61.1984221562482</v>
+      </c>
+      <c r="D74" t="n">
+        <v>73.1679068936808</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="n">
+        <v>80.2386934272548</v>
+      </c>
+      <c r="C75" t="n">
+        <v>75.8826445028184</v>
+      </c>
+      <c r="D75" t="n">
+        <v>84.5947423516913</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="n">
+        <v>69.8412414157443</v>
+      </c>
+      <c r="C76" t="n">
+        <v>64.7013356168526</v>
+      </c>
+      <c r="D76" t="n">
+        <v>74.9811472146361</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="n">
+        <v>48.3820525185655</v>
+      </c>
+      <c r="C77" t="n">
+        <v>41.7923905300615</v>
+      </c>
+      <c r="D77" t="n">
+        <v>54.9717145070694</v>
+      </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="n">
+        <v>56.3702485232946</v>
+      </c>
+      <c r="C78" t="n">
+        <v>47.1363170919584</v>
+      </c>
+      <c r="D78" t="n">
+        <v>65.604179954631</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="n">
+        <v>68.7802744080652</v>
+      </c>
+      <c r="C79" t="n">
+        <v>59.5455024587472</v>
+      </c>
+      <c r="D79" t="n">
+        <v>78.0150463573832</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="n">
+        <v>68.8976090857443</v>
+      </c>
+      <c r="C80" t="n">
+        <v>62.0112974591742</v>
+      </c>
+      <c r="D80" t="n">
+        <v>75.7839207123144</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="n">
         <v>86.738133326359</v>
       </c>
-      <c r="C57" t="n">
-        <v>82.4998041200541</v>
-      </c>
-      <c r="D57" t="n">
-        <v>90.9764625326639</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58"/>
-      <c r="B58" t="n">
-        <v>75.7028075570561</v>
-      </c>
-      <c r="C58" t="n">
-        <v>68.9992065445205</v>
-      </c>
-      <c r="D58" t="n">
-        <v>82.4064085695917</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59"/>
-      <c r="B59" t="n">
-        <v>61.3583813050965</v>
-      </c>
-      <c r="C59" t="n">
-        <v>52.4912025824176</v>
-      </c>
-      <c r="D59" t="n">
-        <v>70.2255600277754</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60"/>
-      <c r="B60" t="n">
-        <v>66.3276502237063</v>
-      </c>
-      <c r="C60" t="n">
-        <v>59.2780379715418</v>
-      </c>
-      <c r="D60" t="n">
-        <v>73.3772624758709</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61"/>
-      <c r="B61" t="n">
-        <v>54.4823400771683</v>
-      </c>
-      <c r="C61" t="n">
-        <v>51.0023939235266</v>
-      </c>
-      <c r="D61" t="n">
-        <v>57.96228623081</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
+      <c r="C81" t="n">
+        <v>79.5495682183973</v>
+      </c>
+      <c r="D81" t="n">
+        <v>93.9266984343207</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
+        <v>90.38971522159</v>
+      </c>
+      <c r="C82" t="n">
+        <v>81.6283814315073</v>
+      </c>
+      <c r="D82" t="n">
+        <v>99.1510490116727</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="n">
+        <v>61.8940512401457</v>
+      </c>
+      <c r="C83" t="n">
+        <v>57.2896596291157</v>
+      </c>
+      <c r="D83" t="n">
+        <v>66.4984428511757</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="n">
+        <v>69.8977842975047</v>
+      </c>
+      <c r="C84" t="n">
+        <v>65.4924309964555</v>
+      </c>
+      <c r="D84" t="n">
+        <v>74.3031375985539</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="n">
+        <v>41.2443933199</v>
+      </c>
+      <c r="C85" t="n">
+        <v>36.261672640862</v>
+      </c>
+      <c r="D85" t="n">
+        <v>46.227113998938</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8679804978435</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>66.47906002391</v>
+        <v>66.435391002076</v>
       </c>
       <c r="D2" t="n">
-        <v>69.256900971777</v>
+        <v>69.2156334015152</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,13 +457,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>58.2036706373417</v>
+        <v>58.2213755593942</v>
       </c>
       <c r="C3" t="n">
-        <v>51.6049338919256</v>
+        <v>51.6233686680771</v>
       </c>
       <c r="D3" t="n">
-        <v>64.8024073827579</v>
+        <v>64.8193824507112</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -477,10 +477,10 @@
         <v>64.4575228658036</v>
       </c>
       <c r="C4" t="n">
-        <v>59.3082081809368</v>
+        <v>59.3069211203831</v>
       </c>
       <c r="D4" t="n">
-        <v>69.6068375506703</v>
+        <v>69.608124611224</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -494,10 +494,10 @@
         <v>80.0284739031995</v>
       </c>
       <c r="C5" t="n">
-        <v>76.4371644309911</v>
+        <v>76.4362667906174</v>
       </c>
       <c r="D5" t="n">
-        <v>83.619783375408</v>
+        <v>83.6206810157816</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -511,10 +511,10 @@
         <v>64.2550167034555</v>
       </c>
       <c r="C6" t="n">
-        <v>59.6112601142505</v>
+        <v>59.610099416897</v>
       </c>
       <c r="D6" t="n">
-        <v>68.8987732926605</v>
+        <v>68.899933990014</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -528,10 +528,10 @@
         <v>46.9492339511511</v>
       </c>
       <c r="C7" t="n">
-        <v>41.3927990325155</v>
+        <v>41.3914102131016</v>
       </c>
       <c r="D7" t="n">
-        <v>52.5056688697867</v>
+        <v>52.5070576892007</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -545,10 +545,10 @@
         <v>68.6368170390751</v>
       </c>
       <c r="C8" t="n">
-        <v>61.4197452444066</v>
+        <v>61.4179413522406</v>
       </c>
       <c r="D8" t="n">
-        <v>75.8538888337436</v>
+        <v>75.8556927259095</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -562,10 +562,10 @@
         <v>69.3214710621706</v>
       </c>
       <c r="C9" t="n">
-        <v>60.6965978728041</v>
+        <v>60.6944421035916</v>
       </c>
       <c r="D9" t="n">
-        <v>77.9463442515372</v>
+        <v>77.9485000207496</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -579,10 +579,10 @@
         <v>70.1245337266761</v>
       </c>
       <c r="C10" t="n">
-        <v>64.0536990862034</v>
+        <v>64.052181693643</v>
       </c>
       <c r="D10" t="n">
-        <v>76.1953683671489</v>
+        <v>76.1968857597093</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -596,10 +596,10 @@
         <v>87.6159556077524</v>
       </c>
       <c r="C11" t="n">
-        <v>82.6471708682941</v>
+        <v>82.6459289308268</v>
       </c>
       <c r="D11" t="n">
-        <v>92.5847403472107</v>
+        <v>92.585982284678</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -613,10 +613,10 @@
         <v>90.9247309965247</v>
       </c>
       <c r="C12" t="n">
-        <v>84.7094256520237</v>
+        <v>84.7078721493097</v>
       </c>
       <c r="D12" t="n">
-        <v>97.1400363410257</v>
+        <v>97.1415898437397</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -630,10 +630,10 @@
         <v>63.6149633119223</v>
       </c>
       <c r="C13" t="n">
-        <v>59.7148415491709</v>
+        <v>59.713866721804</v>
       </c>
       <c r="D13" t="n">
-        <v>67.5150850746736</v>
+        <v>67.5160599020405</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -644,13 +644,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>78.5390250556912</v>
+        <v>78.5390250556913</v>
       </c>
       <c r="C14" t="n">
-        <v>75.1496389301711</v>
+        <v>75.1487917601202</v>
       </c>
       <c r="D14" t="n">
-        <v>81.9284111812114</v>
+        <v>81.9292583512623</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -664,10 +664,10 @@
         <v>49.6956252308101</v>
       </c>
       <c r="C15" t="n">
-        <v>45.1595850858804</v>
+        <v>45.1584513120294</v>
       </c>
       <c r="D15" t="n">
-        <v>54.2316653757398</v>
+        <v>54.2327991495909</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -678,13 +678,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>55.3718303775116</v>
+        <v>55.3746767090015</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4833021444574</v>
+        <v>54.4859318721968</v>
       </c>
       <c r="D16" t="n">
-        <v>56.2603586105659</v>
+        <v>56.2634215458062</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -695,13 +695,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>45.2686105807208</v>
+        <v>45.2808231861887</v>
       </c>
       <c r="C17" t="n">
-        <v>41.2369915707786</v>
+        <v>41.2487754709432</v>
       </c>
       <c r="D17" t="n">
-        <v>49.3002295906631</v>
+        <v>49.3128709014343</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -712,13 +712,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>60.8336262307662</v>
+        <v>60.8336262307661</v>
       </c>
       <c r="C18" t="n">
-        <v>57.7973945297114</v>
+        <v>57.7966356298784</v>
       </c>
       <c r="D18" t="n">
-        <v>63.8698579318209</v>
+        <v>63.8706168316539</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -732,10 +732,10 @@
         <v>77.42661541532</v>
       </c>
       <c r="C19" t="n">
-        <v>75.2139691659458</v>
+        <v>75.2134161195928</v>
       </c>
       <c r="D19" t="n">
-        <v>79.6392616646942</v>
+        <v>79.6398147110472</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -749,10 +749,10 @@
         <v>59.9498572230777</v>
       </c>
       <c r="C20" t="n">
-        <v>57.1785205985379</v>
+        <v>57.1778279086813</v>
       </c>
       <c r="D20" t="n">
-        <v>62.7211938476176</v>
+        <v>62.7218865374742</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -766,10 +766,10 @@
         <v>45.8263840559057</v>
       </c>
       <c r="C21" t="n">
-        <v>42.6043663688251</v>
+        <v>42.6035610321692</v>
       </c>
       <c r="D21" t="n">
-        <v>49.0484017429864</v>
+        <v>49.0492070796423</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -783,10 +783,10 @@
         <v>48.4321597862702</v>
       </c>
       <c r="C22" t="n">
-        <v>43.800782522005</v>
+        <v>43.7996249188381</v>
       </c>
       <c r="D22" t="n">
-        <v>53.0635370505355</v>
+        <v>53.0646946537023</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -800,10 +800,10 @@
         <v>61.2111541228833</v>
       </c>
       <c r="C23" t="n">
-        <v>56.2079351211208</v>
+        <v>56.2066845768809</v>
       </c>
       <c r="D23" t="n">
-        <v>66.2143731246458</v>
+        <v>66.2156236688857</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -817,10 +817,10 @@
         <v>57.2331454255148</v>
       </c>
       <c r="C24" t="n">
-        <v>53.5498401837316</v>
+        <v>53.5489195492056</v>
       </c>
       <c r="D24" t="n">
-        <v>60.9164506672981</v>
+        <v>60.9173713018241</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -834,10 +834,10 @@
         <v>84.6428606188793</v>
       </c>
       <c r="C25" t="n">
-        <v>80.8509054008945</v>
+        <v>80.8499576095317</v>
       </c>
       <c r="D25" t="n">
-        <v>88.4348158368641</v>
+        <v>88.4357636282268</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -851,10 +851,10 @@
         <v>85.1579637309937</v>
       </c>
       <c r="C26" t="n">
-        <v>79.9612411806006</v>
+        <v>79.959942270549</v>
       </c>
       <c r="D26" t="n">
-        <v>90.3546862813867</v>
+        <v>90.3559851914384</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -868,10 +868,10 @@
         <v>53.6291385483281</v>
       </c>
       <c r="C27" t="n">
-        <v>51.2964320705412</v>
+        <v>51.2958490153824</v>
       </c>
       <c r="D27" t="n">
-        <v>55.961845026115</v>
+        <v>55.9624280812738</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -885,10 +885,10 @@
         <v>57.9183059294616</v>
       </c>
       <c r="C28" t="n">
-        <v>55.5464263028299</v>
+        <v>55.5458334564236</v>
       </c>
       <c r="D28" t="n">
-        <v>60.2901855560933</v>
+        <v>60.2907784024995</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -902,10 +902,10 @@
         <v>35.2117596369122</v>
       </c>
       <c r="C29" t="n">
-        <v>32.7461300694052</v>
+        <v>32.7455137903951</v>
       </c>
       <c r="D29" t="n">
-        <v>37.6773892044193</v>
+        <v>37.6780054834294</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -916,13 +916,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>64.7240480131028</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C30" t="n">
-        <v>63.0045795926267</v>
+        <v>63.0016987755704</v>
       </c>
       <c r="D30" t="n">
-        <v>66.4435164335789</v>
+        <v>66.4404058054326</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -933,13 +933,13 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>53.5959256498547</v>
+        <v>53.6064814821634</v>
       </c>
       <c r="C31" t="n">
-        <v>45.1374099334053</v>
+        <v>45.1469432318865</v>
       </c>
       <c r="D31" t="n">
-        <v>62.0544413663041</v>
+        <v>62.0660197324404</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -953,10 +953,10 @@
         <v>64.6926442530012</v>
       </c>
       <c r="C32" t="n">
-        <v>58.8632486020242</v>
+        <v>58.8617915566398</v>
       </c>
       <c r="D32" t="n">
-        <v>70.5220399039782</v>
+        <v>70.5234969493626</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -970,10 +970,10 @@
         <v>81.0058301157972</v>
       </c>
       <c r="C33" t="n">
-        <v>76.9129967696661</v>
+        <v>76.9119737744376</v>
       </c>
       <c r="D33" t="n">
-        <v>85.0986634619283</v>
+        <v>85.0996864571568</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -987,10 +987,10 @@
         <v>67.9015812555758</v>
       </c>
       <c r="C34" t="n">
-        <v>62.7490957928574</v>
+        <v>62.7478079397744</v>
       </c>
       <c r="D34" t="n">
-        <v>73.0540667182942</v>
+        <v>73.0553545713773</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -1004,10 +1004,10 @@
         <v>56.2472580448493</v>
       </c>
       <c r="C35" t="n">
-        <v>49.8937322240713</v>
+        <v>49.8921441734352</v>
       </c>
       <c r="D35" t="n">
-        <v>62.6007838656273</v>
+        <v>62.6023719162634</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -1021,10 +1021,10 @@
         <v>63.2404094953534</v>
       </c>
       <c r="C36" t="n">
-        <v>54.6141448047978</v>
+        <v>54.6119886877826</v>
       </c>
       <c r="D36" t="n">
-        <v>71.8666741859089</v>
+        <v>71.8688303029242</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -1038,10 +1038,10 @@
         <v>72.292560057148</v>
       </c>
       <c r="C37" t="n">
-        <v>62.9728692800801</v>
+        <v>62.9705398426489</v>
       </c>
       <c r="D37" t="n">
-        <v>81.6122508342159</v>
+        <v>81.6145802716471</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -1055,10 +1055,10 @@
         <v>67.9944701294276</v>
       </c>
       <c r="C38" t="n">
-        <v>60.8526087641426</v>
+        <v>60.8508236706679</v>
       </c>
       <c r="D38" t="n">
-        <v>75.1363314947126</v>
+        <v>75.1381165881873</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -1072,10 +1072,10 @@
         <v>87.221912376435</v>
       </c>
       <c r="C39" t="n">
-        <v>80.0858153233152</v>
+        <v>80.0840316706184</v>
       </c>
       <c r="D39" t="n">
-        <v>94.3580094295548</v>
+        <v>94.3597930822516</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -1089,10 +1089,10 @@
         <v>90.1243309203011</v>
       </c>
       <c r="C40" t="n">
-        <v>81.4215058641674</v>
+        <v>81.4193306110471</v>
       </c>
       <c r="D40" t="n">
-        <v>98.8271559764348</v>
+        <v>98.8293312295551</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -1106,10 +1106,10 @@
         <v>63.7282452678287</v>
       </c>
       <c r="C41" t="n">
-        <v>59.2222856684252</v>
+        <v>59.2211594131443</v>
       </c>
       <c r="D41" t="n">
-        <v>68.2342048672322</v>
+        <v>68.2353311225131</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1123,10 +1123,10 @@
         <v>73.913371562143</v>
       </c>
       <c r="C42" t="n">
-        <v>69.6929909026991</v>
+        <v>69.6919360272835</v>
       </c>
       <c r="D42" t="n">
-        <v>78.1337522215869</v>
+        <v>78.1348070970025</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -1140,10 +1140,10 @@
         <v>42.7105338450207</v>
       </c>
       <c r="C43" t="n">
-        <v>37.5011355251473</v>
+        <v>37.4998334468133</v>
       </c>
       <c r="D43" t="n">
-        <v>47.9199321648942</v>
+        <v>47.9212342432281</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -1154,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>67.2054760884641</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C44" t="n">
-        <v>65.5001731723724</v>
+        <v>65.427782749948</v>
       </c>
       <c r="D44" t="n">
-        <v>68.9107790045557</v>
+        <v>68.8430192782629</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -1171,13 +1171,13 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>61.0821485295683</v>
+        <v>61.1177952962955</v>
       </c>
       <c r="C45" t="n">
-        <v>53.2178817623498</v>
+        <v>53.2562585890599</v>
       </c>
       <c r="D45" t="n">
-        <v>68.9464152967868</v>
+        <v>68.9793320035311</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -1191,10 +1191,10 @@
         <v>64.5908945027497</v>
       </c>
       <c r="C46" t="n">
-        <v>58.6174375636191</v>
+        <v>58.6159445104138</v>
       </c>
       <c r="D46" t="n">
-        <v>70.5643514418803</v>
+        <v>70.5658444950856</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -1208,10 +1208,10 @@
         <v>89.2110961474164</v>
       </c>
       <c r="C47" t="n">
-        <v>86.0085674355688</v>
+        <v>86.0077669701419</v>
       </c>
       <c r="D47" t="n">
-        <v>92.413624859264</v>
+        <v>92.4144253246908</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -1225,10 +1225,10 @@
         <v>71.7266894623785</v>
       </c>
       <c r="C48" t="n">
-        <v>66.4640777021023</v>
+        <v>66.4627623231789</v>
       </c>
       <c r="D48" t="n">
-        <v>76.9893012226547</v>
+        <v>76.9906166015781</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -1242,10 +1242,10 @@
         <v>56.9191698770991</v>
       </c>
       <c r="C49" t="n">
-        <v>50.0853031935026</v>
+        <v>50.0835950826615</v>
       </c>
       <c r="D49" t="n">
-        <v>63.7530365606956</v>
+        <v>63.7547446715367</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -1259,10 +1259,10 @@
         <v>60.1011630690049</v>
       </c>
       <c r="C50" t="n">
-        <v>50.7247325832392</v>
+        <v>50.7223889638352</v>
       </c>
       <c r="D50" t="n">
-        <v>69.4775935547706</v>
+        <v>69.4799371741746</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -1276,10 +1276,10 @@
         <v>74.6017774853449</v>
       </c>
       <c r="C51" t="n">
-        <v>65.3686838699917</v>
+        <v>65.3663760773419</v>
       </c>
       <c r="D51" t="n">
-        <v>83.8348711006981</v>
+        <v>83.8371788933479</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -1290,13 +1290,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="n">
-        <v>68.6349696406962</v>
+        <v>68.6349696406961</v>
       </c>
       <c r="C52" t="n">
-        <v>61.8676758857027</v>
+        <v>61.8659844146273</v>
       </c>
       <c r="D52" t="n">
-        <v>75.4022633956896</v>
+        <v>75.4039548667649</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -1307,13 +1307,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>86.9268829131095</v>
+        <v>86.9268829131096</v>
       </c>
       <c r="C53" t="n">
-        <v>79.9263841716158</v>
+        <v>79.9246344114365</v>
       </c>
       <c r="D53" t="n">
-        <v>93.9273816546033</v>
+        <v>93.9291314147826</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -1327,10 +1327,10 @@
         <v>90.9124159876524</v>
       </c>
       <c r="C54" t="n">
-        <v>82.8207349157313</v>
+        <v>82.8187124167857</v>
       </c>
       <c r="D54" t="n">
-        <v>99.0040970595734</v>
+        <v>99.0061195585191</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -1344,10 +1344,10 @@
         <v>56.7717868089115</v>
       </c>
       <c r="C55" t="n">
-        <v>52.0748369904824</v>
+        <v>52.0736629975913</v>
       </c>
       <c r="D55" t="n">
-        <v>61.4687366273407</v>
+        <v>61.4699106202318</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -1361,10 +1361,10 @@
         <v>76.5072942240045</v>
       </c>
       <c r="C56" t="n">
-        <v>72.3012262284404</v>
+        <v>72.3001749304455</v>
       </c>
       <c r="D56" t="n">
-        <v>80.7133622195686</v>
+        <v>80.7144135175635</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -1378,10 +1378,10 @@
         <v>39.5788881931371</v>
       </c>
       <c r="C57" t="n">
-        <v>34.1909163917365</v>
+        <v>34.1895696793302</v>
       </c>
       <c r="D57" t="n">
-        <v>44.9668599945378</v>
+        <v>44.9682067069441</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -1392,13 +1392,13 @@
         <v>5</v>
       </c>
       <c r="B58" t="n">
-        <v>68.518253119246</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C58" t="n">
-        <v>66.8882724435162</v>
+        <v>66.8593150984853</v>
       </c>
       <c r="D58" t="n">
-        <v>70.1482337949759</v>
+        <v>70.1205167336354</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
@@ -1409,13 +1409,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>63.206964383873</v>
+        <v>63.1815934774769</v>
       </c>
       <c r="C59" t="n">
-        <v>55.6429132989374</v>
+        <v>55.6156662398226</v>
       </c>
       <c r="D59" t="n">
-        <v>70.7710154688086</v>
+        <v>70.7475207151311</v>
       </c>
       <c r="E59" t="s">
         <v>23</v>
@@ -1429,10 +1429,10 @@
         <v>70.4051987741669</v>
       </c>
       <c r="C60" t="n">
-        <v>64.7399941269074</v>
+        <v>64.7385781207248</v>
       </c>
       <c r="D60" t="n">
-        <v>76.0704034214263</v>
+        <v>76.0718194276089</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
@@ -1446,10 +1446,10 @@
         <v>87.7350844295252</v>
       </c>
       <c r="C61" t="n">
-        <v>84.218453433964</v>
+        <v>84.2175744593211</v>
       </c>
       <c r="D61" t="n">
-        <v>91.2517154250863</v>
+        <v>91.2525943997292</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
@@ -1463,10 +1463,10 @@
         <v>74.2047687146181</v>
       </c>
       <c r="C62" t="n">
-        <v>69.2145602192984</v>
+        <v>69.2133129270076</v>
       </c>
       <c r="D62" t="n">
-        <v>79.1949772099378</v>
+        <v>79.1962245022285</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
@@ -1480,10 +1480,10 @@
         <v>56.5733861836848</v>
       </c>
       <c r="C63" t="n">
-        <v>50.5323825931756</v>
+        <v>50.5308726568245</v>
       </c>
       <c r="D63" t="n">
-        <v>62.614389774194</v>
+        <v>62.6158997105451</v>
       </c>
       <c r="E63" t="s">
         <v>23</v>
@@ -1494,13 +1494,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>65.2899469820091</v>
+        <v>65.2899469820092</v>
       </c>
       <c r="C64" t="n">
-        <v>56.3356629306815</v>
+        <v>56.3334248259056</v>
       </c>
       <c r="D64" t="n">
-        <v>74.2442310333368</v>
+        <v>74.2464691381127</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -1514,10 +1514,10 @@
         <v>83.7097204163796</v>
       </c>
       <c r="C65" t="n">
-        <v>76.1368370245405</v>
+        <v>76.1349441980019</v>
       </c>
       <c r="D65" t="n">
-        <v>91.2826038082186</v>
+        <v>91.2844966347573</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
@@ -1531,10 +1531,10 @@
         <v>69.5653430715701</v>
       </c>
       <c r="C66" t="n">
-        <v>62.6711928891369</v>
+        <v>62.6694697105599</v>
       </c>
       <c r="D66" t="n">
-        <v>76.4594932540033</v>
+        <v>76.4612164325803</v>
       </c>
       <c r="E66" t="s">
         <v>23</v>
@@ -1548,10 +1548,10 @@
         <v>90.2500167508645</v>
       </c>
       <c r="C67" t="n">
-        <v>84.0313603140007</v>
+        <v>84.0298059736881</v>
       </c>
       <c r="D67" t="n">
-        <v>96.4686731877282</v>
+        <v>96.4702275280408</v>
       </c>
       <c r="E67" t="s">
         <v>23</v>
@@ -1565,10 +1565,10 @@
         <v>93.2020672431582</v>
       </c>
       <c r="C68" t="n">
-        <v>85.5770051274782</v>
+        <v>85.5750992589754</v>
       </c>
       <c r="D68" t="n">
-        <v>100.827129358838</v>
+        <v>100.829035227341</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
@@ -1582,10 +1582,10 @@
         <v>67.9220396225733</v>
       </c>
       <c r="C69" t="n">
-        <v>63.6557921052468</v>
+        <v>63.6547257655049</v>
       </c>
       <c r="D69" t="n">
-        <v>72.1882871398999</v>
+        <v>72.1893534796417</v>
       </c>
       <c r="E69" t="s">
         <v>23</v>
@@ -1599,10 +1599,10 @@
         <v>80.1402311356906</v>
       </c>
       <c r="C70" t="n">
-        <v>76.4031175806626</v>
+        <v>76.40218349686</v>
       </c>
       <c r="D70" t="n">
-        <v>83.8773446907187</v>
+        <v>83.8782787745212</v>
       </c>
       <c r="E70" t="s">
         <v>23</v>
@@ -1616,10 +1616,10 @@
         <v>45.9130390869888</v>
       </c>
       <c r="C71" t="n">
-        <v>41.0283528041185</v>
+        <v>41.0271318868865</v>
       </c>
       <c r="D71" t="n">
-        <v>50.797725369859</v>
+        <v>50.798946287091</v>
       </c>
       <c r="E71" t="s">
         <v>23</v>
@@ -1630,13 +1630,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="n">
-        <v>61.895417279981</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C72" t="n">
-        <v>60.1645023547081</v>
+        <v>60.1485598973454</v>
       </c>
       <c r="D72" t="n">
-        <v>63.6263322052539</v>
+        <v>63.6111785591716</v>
       </c>
       <c r="E72" t="s">
         <v>24</v>
@@ -1647,13 +1647,13 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>52.8437635624908</v>
+        <v>52.8533714542478</v>
       </c>
       <c r="C73" t="n">
-        <v>44.6933103512352</v>
+        <v>44.7007246364643</v>
       </c>
       <c r="D73" t="n">
-        <v>60.9942167737465</v>
+        <v>61.0060182720313</v>
       </c>
       <c r="E73" t="s">
         <v>24</v>
@@ -1667,10 +1667,10 @@
         <v>67.1831645249645</v>
       </c>
       <c r="C74" t="n">
-        <v>61.1984221562482</v>
+        <v>61.1969262822731</v>
       </c>
       <c r="D74" t="n">
-        <v>73.1679068936808</v>
+        <v>73.1694027676559</v>
       </c>
       <c r="E74" t="s">
         <v>24</v>
@@ -1681,13 +1681,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>80.2386934272548</v>
+        <v>80.2386934272549</v>
       </c>
       <c r="C75" t="n">
-        <v>75.8826445028184</v>
+        <v>75.8815557174006</v>
       </c>
       <c r="D75" t="n">
-        <v>84.5947423516913</v>
+        <v>84.5958311371091</v>
       </c>
       <c r="E75" t="s">
         <v>24</v>
@@ -1701,10 +1701,10 @@
         <v>69.8412414157443</v>
       </c>
       <c r="C76" t="n">
-        <v>64.7013356168526</v>
+        <v>64.7000509080305</v>
       </c>
       <c r="D76" t="n">
-        <v>74.9811472146361</v>
+        <v>74.9824319234582</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
@@ -1718,10 +1718,10 @@
         <v>48.3820525185655</v>
       </c>
       <c r="C77" t="n">
-        <v>41.7923905300615</v>
+        <v>41.7907434576787</v>
       </c>
       <c r="D77" t="n">
-        <v>54.9717145070694</v>
+        <v>54.9733615794522</v>
       </c>
       <c r="E77" t="s">
         <v>24</v>
@@ -1735,10 +1735,10 @@
         <v>56.3702485232946</v>
       </c>
       <c r="C78" t="n">
-        <v>47.1363170919584</v>
+        <v>47.1340090898982</v>
       </c>
       <c r="D78" t="n">
-        <v>65.604179954631</v>
+        <v>65.6064879566911</v>
       </c>
       <c r="E78" t="s">
         <v>24</v>
@@ -1752,10 +1752,10 @@
         <v>68.7802744080652</v>
       </c>
       <c r="C79" t="n">
-        <v>59.5455024587472</v>
+        <v>59.5431942466013</v>
       </c>
       <c r="D79" t="n">
-        <v>78.0150463573832</v>
+        <v>78.017354569529</v>
       </c>
       <c r="E79" t="s">
         <v>24</v>
@@ -1769,10 +1769,10 @@
         <v>68.8976090857443</v>
       </c>
       <c r="C80" t="n">
-        <v>62.0112974591742</v>
+        <v>62.0095762398281</v>
       </c>
       <c r="D80" t="n">
-        <v>75.7839207123144</v>
+        <v>75.7856419316606</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -1786,10 +1786,10 @@
         <v>86.738133326359</v>
       </c>
       <c r="C81" t="n">
-        <v>79.5495682183973</v>
+        <v>79.5477714514187</v>
       </c>
       <c r="D81" t="n">
-        <v>93.9266984343207</v>
+        <v>93.9284952012993</v>
       </c>
       <c r="E81" t="s">
         <v>24</v>
@@ -1803,10 +1803,10 @@
         <v>90.38971522159</v>
       </c>
       <c r="C82" t="n">
-        <v>81.6283814315073</v>
+        <v>81.62619155425</v>
       </c>
       <c r="D82" t="n">
-        <v>99.1510490116727</v>
+        <v>99.15323888893</v>
       </c>
       <c r="E82" t="s">
         <v>24</v>
@@ -1820,10 +1820,10 @@
         <v>61.8940512401457</v>
       </c>
       <c r="C83" t="n">
-        <v>57.2896596291157</v>
+        <v>57.2885087709571</v>
       </c>
       <c r="D83" t="n">
-        <v>66.4984428511757</v>
+        <v>66.4995937093343</v>
       </c>
       <c r="E83" t="s">
         <v>24</v>
@@ -1837,10 +1837,10 @@
         <v>69.8977842975047</v>
       </c>
       <c r="C84" t="n">
-        <v>65.4924309964555</v>
+        <v>65.4913298875108</v>
       </c>
       <c r="D84" t="n">
-        <v>74.3031375985539</v>
+        <v>74.3042387074987</v>
       </c>
       <c r="E84" t="s">
         <v>24</v>
@@ -1854,10 +1854,10 @@
         <v>41.2443933199</v>
       </c>
       <c r="C85" t="n">
-        <v>36.261672640862</v>
+        <v>36.2604272201354</v>
       </c>
       <c r="D85" t="n">
-        <v>46.227113998938</v>
+        <v>46.2283594196645</v>
       </c>
       <c r="E85" t="s">
         <v>24</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
@@ -77,16 +77,24 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
+Other members: Global South + EU 
+(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
+Global South + China 
+(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High** 
+Global South + China + EU + various HICs 
+(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
+Global South + China + EU + various HICs 
++ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>
@@ -440,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8255122017956</v>
+        <v>67.7971034621066</v>
       </c>
       <c r="C2" t="n">
-        <v>66.435391002076</v>
+        <v>66.4060461449477</v>
       </c>
       <c r="D2" t="n">
-        <v>69.2156334015152</v>
+        <v>69.1881607792655</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -678,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>55.3746767090015</v>
+        <v>55.3794402736958</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4859318721968</v>
+        <v>54.4904084313456</v>
       </c>
       <c r="D16" t="n">
-        <v>56.2634215458062</v>
+        <v>56.268472116046</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -1154,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>67.1354010141054</v>
+        <v>67.1068857857389</v>
       </c>
       <c r="C44" t="n">
-        <v>65.427782749948</v>
+        <v>65.398148692157</v>
       </c>
       <c r="D44" t="n">
-        <v>68.8430192782629</v>
+        <v>68.8156228793208</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -1392,13 +1400,13 @@
         <v>5</v>
       </c>
       <c r="B58" t="n">
-        <v>68.4899159160604</v>
+        <v>68.4640848889378</v>
       </c>
       <c r="C58" t="n">
-        <v>66.8593150984853</v>
+        <v>66.8324549522336</v>
       </c>
       <c r="D58" t="n">
-        <v>70.1205167336354</v>
+        <v>70.095714825642</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
@@ -1630,13 +1638,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="n">
-        <v>61.8798692282585</v>
+        <v>61.8966560897</v>
       </c>
       <c r="C72" t="n">
-        <v>60.1485598973454</v>
+        <v>60.1646532127507</v>
       </c>
       <c r="D72" t="n">
-        <v>63.6111785591716</v>
+        <v>63.6286589666493</v>
       </c>
       <c r="E72" t="s">
         <v>24</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_pol.xlsx
@@ -77,24 +77,16 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
-Other members: Global South + EU 
-(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
-Global South + China 
-(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High** 
-Global South + China + EU + various HICs 
-(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
-Global South + China + EU + various HICs 
-+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>
@@ -448,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.7971034621066</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>66.4060461449477</v>
+        <v>66.435391002076</v>
       </c>
       <c r="D2" t="n">
-        <v>69.1881607792655</v>
+        <v>69.2156334015152</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -686,13 +678,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>55.3794402736958</v>
+        <v>55.3746767090015</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4904084313456</v>
+        <v>54.4859318721968</v>
       </c>
       <c r="D16" t="n">
-        <v>56.268472116046</v>
+        <v>56.2634215458062</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -1162,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>67.1068857857389</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C44" t="n">
-        <v>65.398148692157</v>
+        <v>65.427782749948</v>
       </c>
       <c r="D44" t="n">
-        <v>68.8156228793208</v>
+        <v>68.8430192782629</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -1400,13 +1392,13 @@
         <v>5</v>
       </c>
       <c r="B58" t="n">
-        <v>68.4640848889378</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C58" t="n">
-        <v>66.8324549522336</v>
+        <v>66.8593150984853</v>
       </c>
       <c r="D58" t="n">
-        <v>70.095714825642</v>
+        <v>70.1205167336354</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
@@ -1638,13 +1630,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="n">
-        <v>61.8966560897</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C72" t="n">
-        <v>60.1646532127507</v>
+        <v>60.1485598973454</v>
       </c>
       <c r="D72" t="n">
-        <v>63.6286589666493</v>
+        <v>63.6111785591716</v>
       </c>
       <c r="E72" t="s">
         <v>24</v>
